--- a/excel/assignments/Assignment3b_Workbook.xlsx
+++ b/excel/assignments/Assignment3b_Workbook.xlsx
@@ -21,24 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
-    <t>Bulls Team Roster: Co-ed Softball 2013</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Cell Phone</t>
-  </si>
-  <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>Position(s)</t>
-  </si>
-  <si>
     <t>Bonnie</t>
   </si>
   <si>
@@ -349,6 +331,24 @@
   </si>
   <si>
     <t>Outfield</t>
+  </si>
+  <si>
+    <t>Bulls Mannschaftsaufstellung: Softball(gemischt) 2013</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Telefon(mobil)</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Spielposition(en)</t>
   </si>
 </sst>
 </file>
@@ -693,19 +693,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -714,376 +717,376 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
